--- a/target/test-classes/NewUsers.xlsx
+++ b/target/test-classes/NewUsers.xlsx
@@ -1361,7 +1361,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
